--- a/Horario_Semana_Completo.xlsx
+++ b/Horario_Semana_Completo.xlsx
@@ -7,38 +7,38 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="lunes-Asistente de Self Checkout" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="lunes-Representante de Servicio" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="lunes-Self Checkout" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="lunes-RS" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="lunes-Cajer@" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="lunes-Ecommerce" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="lunes-Supervisor(@)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="martes-Asistente de Self Checkout" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="martes-Representante de Servicio" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="martes-Self Checkout" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="martes-RS" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="martes-Cajer@" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="martes-Ecommerce" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="martes-Supervisor(@)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="miércoles-Asistente de Self Checkout" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="miércoles-Representante de Servicio" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="miércoles-Self Checkout" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="miércoles-RS" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="miércoles-Cajer@" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="miércoles-Ecommerce" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="miércoles-Supervisor(@)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="jueves-Asistente de Self Checkout" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="jueves-Representante de Servicio" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="jueves-Self Checkout" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="jueves-RS" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="jueves-Cajer@" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="jueves-Ecommerce" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="jueves-Supervisor(@)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="viernes-Asistente de Self Checkout" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="viernes-Representante de Servicio" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="viernes-Self Checkout" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="viernes-RS" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="viernes-Cajer@" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="viernes-Ecommerce" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="viernes-Supervisor(@)" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="sábado-Asistente de Self Checkout" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="sábado-Representante de Servicio" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="sábado-Self Checkout" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="sábado-RS" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="sábado-Cajer@" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="sábado-Ecommerce" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="sábado-Supervisor(@)" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="domingo-Asistente de Self Checkout" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="domingo-Representante de Servicio" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="domingo-Self Checkout" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="domingo-RS" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="domingo-Cajer@" sheetId="33" state="visible" r:id="rId33"/>
     <sheet name="domingo-Ecommerce" sheetId="34" state="visible" r:id="rId34"/>
     <sheet name="domingo-Supervisor(@)" sheetId="35" state="visible" r:id="rId35"/>

--- a/Horario_Semana_Completo.xlsx
+++ b/Horario_Semana_Completo.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>FLORES CANDELA</t>
+          <t>FLORES</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ACHA MONDRAGON</t>
+          <t>ACHA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>HERRERA RIVEROS</t>
+          <t>HERRERA</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -533,82 +533,82 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>TOMAYCONZA QUISPE</t>
+          <t>TOMAYCONZA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI</t>
+          <t>HUAMAN</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI</t>
+          <t>QUIQUIA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO</t>
+          <t>HUAYANAY</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS</t>
+          <t>VEGA</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>CUSI QUISPE</t>
+          <t>CUSI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA</t>
+          <t>IDELFONSO</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO</t>
+          <t>JIMENEZ</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>MUÃ‘OZ SOTOMAYOR</t>
+          <t>MUÃ‘OZ</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO</t>
+          <t>ALVITE</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO</t>
+          <t>NAVARRO</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO</t>
+          <t>LA ROSA</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
@@ -618,62 +618,62 @@
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA</t>
+          <t>BRENIS</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>LEON TICONA</t>
+          <t>LEON</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI</t>
+          <t>BARRIENTOS</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO</t>
+          <t>LIZARME</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>ROA ZARATE</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>INGA DELGADO</t>
+          <t>INGA</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA</t>
+          <t>CASAPAICO</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>SICHA JORGE</t>
+          <t>SICHA</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>HEREDIA CAHUAYA</t>
+          <t>HEREDIA</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>OLIVERA PILCO</t>
+          <t>OLIVERA</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
@@ -700,42 +700,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JUAN ALFONSO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CRISTHIAN JESUS</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KELLY CASTILLO</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EMIR ALESSANDRO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GLADYS YANETH</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RAQUEL YOLANDA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>VENUS ROMERO</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ROCIO ESPERANZA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ALEXIS JAVIER</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CYNTHIA ANGELLINE</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -760,62 +760,62 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CIELO CRISTHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>ANGELICA LOURDES</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ANDREA ESTEFANY</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>JHOSSEP ANGELO</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ASTRID GERALDINE</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>MIRIAN RAQUEL</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>ANGIE LUCERO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>NELLY ANDREA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>VICTORIA CELESTE</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>ARIADNA NAYLEA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>SHADIA SHAMIRA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ALEX PACULIA</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -825,37 +825,37 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MILAGROS NICOL</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BRIYITH JASUMI</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ELIZABETH LUCY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>CARLOS DANIEL</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ENZO MANUEL</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>JOSE ANGELO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -865,32 +865,32 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>SUSAN NAYELLI</t>
+          <t>NAYELLI</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>CAMILA MILAGROS</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>DREYDI BELINDA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>XIOMARA LINARES</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>MARIA CALLAÃ‘AUPA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>PILAR RAMIREZ</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="AO35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="AO38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="AO39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="AO42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="AO47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="AO49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="AO51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="AO54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="AO55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="AO56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="AO57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="AO62" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="AO64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="AO66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="AO67" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="AO70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="AO71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6609,12 +6609,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI</t>
+          <t>HUAMAN</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -6624,27 +6624,27 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>OLIVERA PILCO</t>
+          <t>OLIVERA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ACHA MONDRAGON</t>
+          <t>ACHA</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -6654,52 +6654,52 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI</t>
+          <t>QUIQUIA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>HERRERA RIVEROS</t>
+          <t>HERRERA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS</t>
+          <t>VEGA</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO</t>
+          <t>HUAYANAY</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA</t>
+          <t>IDELFONSO</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO</t>
+          <t>ALVITE</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO</t>
+          <t>YANQUI</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO</t>
+          <t>JIMENEZ</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>CUSI QUISPE</t>
+          <t>CUSI</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>MUÃ‘OZ SOTOMAYOR</t>
+          <t>MUÃ‘OZ</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
@@ -6714,62 +6714,62 @@
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO</t>
+          <t>NAVARRO</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>LEON TICONA</t>
+          <t>LEON</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>ROA ZARATE</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>INGA DELGADO</t>
+          <t>INGA</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA</t>
+          <t>CASAPAICO</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ</t>
+          <t>BONILLA</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>PIÃ‘A SHUPINGAHUA</t>
+          <t>PIÃ‘A</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>SICHA JORGE</t>
+          <t>SICHA</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA</t>
+          <t>BRENIS</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
@@ -6791,62 +6791,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALEXIS JAVIER</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JUAN ALFONSO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KELLY CASTILLO</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAMILA MILAGROS</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CIELO CRISTHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GLADYS YANETH</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ROCIO ESPERANZA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EMIR ALESSANDRO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>VENUS ROMERO</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CYNTHIA ANGELLINE</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>RAQUEL YOLANDA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ANGELICA LOURDES</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6856,82 +6856,82 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>JHOSSEP ANGELO</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ANGIE LUCERO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>MIRIAN LUZ</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ASTRID GERALDINE</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>ANDREA ESTEFANY</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>MIRIAN RAQUEL</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>ALEX PACULIA</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>PILAR RAMIREZ</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>ARIADNA NAYLEA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>VICTORIA CELESTE</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ELIZABETH LUCY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>DREYDI BELINDA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>CARLOS DANIEL</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ENZO MANUEL</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>RAUL FERNANDO</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>JOSE ANGELO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -6956,12 +6956,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>XIOMARA LINARES</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MARIA CALLAÃ‘AUPA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="AK32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="AK35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="AK36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="AK37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="AK39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="AK43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="AK45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="AK47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="AK52" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="AK55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -9697,7 +9697,7 @@
         </is>
       </c>
       <c r="AK56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="AK59" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="AK62" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="AK65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="AK66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -10527,7 +10527,7 @@
         </is>
       </c>
       <c r="AK67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="AK70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="AK71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -10687,7 +10687,7 @@
         </is>
       </c>
       <c r="AK73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -10727,57 +10727,57 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CASTILLO MORENO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>RODRIGUEZ ALVAREZ</t>
+          <t>RODRIGUEZ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ROMERO HAÃ‘ARI</t>
+          <t>ROMERO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MANTARI PEREZ</t>
+          <t>MANTARI</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>LOPEZ LOPEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>APFATA CHALLA</t>
+          <t>APFATA</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>RAMIREZ COTERA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>PACULIA ESTANISLAO</t>
+          <t>PACULIA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>LINARES IBARRA</t>
+          <t>LINARES</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>CALLAÃ‘AUPA HUAMAN</t>
+          <t>CALLAÃ‘AUPA</t>
         </is>
       </c>
     </row>
@@ -10789,57 +10789,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KELLY MIREYA</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JOSE LUIS</t>
+          <t>JoseLuis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MIGUEL FERNANDO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ENRIQUE HUMBERTO DANIEL</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ANA GABRIELA</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PILAR SINTYA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>YENIFER ANGELICA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -11455,7 +11455,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -12020,7 +12020,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -12090,7 +12090,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -12420,7 +12420,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -12580,32 +12580,32 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÃ‘A</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>APO SELF</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO</t>
+          <t>CARHUANCHO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES</t>
+          <t>EVANGELISTA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA</t>
+          <t>ORIHUELA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA</t>
+          <t>MACHCO</t>
         </is>
       </c>
     </row>
@@ -12617,32 +12617,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABIGAIL LUZ</t>
+          <t>ABIGAIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELIZABETH RAIME</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAMES JESUS</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ALVARO RAUL</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NICOLAS AXEL</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -13393,7 +13393,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -13748,7 +13748,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -13808,7 +13808,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PINEDA VASQUEZ</t>
+          <t>PINEDA</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JUDELY AYDEE</t>
+          <t>JUDELY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14691,7 +14691,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -15629,7 +15629,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -15809,7 +15809,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -16049,7 +16049,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -16454,7 +16454,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -16474,7 +16474,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -16534,12 +16534,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ACHA MONDRAGON</t>
+          <t>ACHA</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -16549,57 +16549,57 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>FLORES CANDELA</t>
+          <t>FLORES</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO</t>
+          <t>HUAYANAY</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI</t>
+          <t>HUAMAN</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA</t>
+          <t>IDELFONSO</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI</t>
+          <t>QUIQUIA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>TOMAYCONZA QUISPE</t>
+          <t>TOMAYCONZA</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>HERRERA RIVEROS</t>
+          <t>HERRERA</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>CUSI QUISPE</t>
+          <t>CUSI</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -16609,37 +16609,37 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO</t>
+          <t>ALVITE</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO</t>
+          <t>YANQUI</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>MUÃ‘OZ SOTOMAYOR</t>
+          <t>MUÃ‘OZ</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>TITO LAURA</t>
+          <t>TITO</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS</t>
+          <t>VEGA</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO</t>
+          <t>LA ROSA</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>INGA DELGADO</t>
+          <t>INGA</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
@@ -16654,47 +16654,47 @@
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>SICHA JORGE</t>
+          <t>SICHA</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ</t>
+          <t>BONILLA</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA</t>
+          <t>BRENIS</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA</t>
+          <t>CASAPAICO</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO</t>
+          <t>NAVARRO</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>PIÃ‘A SHUPINGAHUA</t>
+          <t>PIÃ‘A</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO</t>
+          <t>LIZARME</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
@@ -16711,22 +16711,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JUAN ALFONSO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLADYS YANETH</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KELLY CASTILLO</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CRISTHIAN JESUS</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -16736,32 +16736,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ALEXIS JAVIER</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EMIR ALESSANDRO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CIELO CRISTHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>JHOSSEP ANGELO</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CYNTHIA ANGELLINE</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ROCIO ESPERANZA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -16771,72 +16771,72 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>RAQUEL YOLANDA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>ANDREA ESTEFANY</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>VENUS ROMERO</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>ANGIE LUCERO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>MIRIAN LUZ</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>MIRIAN RAQUEL</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>NANCY FIORELLA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>ANGELICA LOURDES</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>SHADIA SHAMIRA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>CARLOS DANIEL</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>ALEX PACULIA</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>XIOMARA LINARES</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>JOSE ANGELO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>RAUL FERNANDO</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -16851,12 +16851,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ENZO MANUEL</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ARIADNA NAYLEA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -16866,17 +16866,17 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>VICTORIA CELESTE</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BRIYITH JASUMI</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>PILAR RAMIREZ</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -17512,7 +17512,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -17792,7 +17792,7 @@
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -17932,7 +17932,7 @@
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -18557,7 +18557,7 @@
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -18842,7 +18842,7 @@
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -19132,7 +19132,7 @@
         </is>
       </c>
       <c r="AJ47" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="AJ51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="AJ56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -19962,7 +19962,7 @@
         </is>
       </c>
       <c r="AJ59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="AJ62" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -20357,7 +20357,7 @@
         </is>
       </c>
       <c r="AJ66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="AJ67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -20462,7 +20462,7 @@
         </is>
       </c>
       <c r="AJ69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="AJ70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="AJ71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -20562,67 +20562,67 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CASTILLO MORENO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>RODRIGUEZ ALVAREZ</t>
+          <t>RODRIGUEZ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>YAPUCHURA APAZA</t>
+          <t>YAPUCHURA</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>RAIME QUISPE</t>
+          <t>RAIME</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ROMERO HAÃ‘ARI</t>
+          <t>ROMERO</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ATO PECHO</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>LOPEZ LOPEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>LINARES IBARRA</t>
+          <t>LINARES</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>PACULIA ESTANISLAO</t>
+          <t>PACULIA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>SALVATIERRA PAREJA</t>
+          <t>SALVATIERRA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>RAMIREZ COTERA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>MANTARI PEREZ</t>
+          <t>MANTARI</t>
         </is>
       </c>
     </row>
@@ -20634,12 +20634,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KELLY MIREYA</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JOSE LUIS</t>
+          <t>JoseLuis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -20654,47 +20654,47 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SEAN ANDRE</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ENRIQUE HUMBERTO DANIEL</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>YENIFER ANGELICA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>PILAR SINTYA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>MIGUEL FERNANDO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -21090,7 +21090,7 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -21440,7 +21440,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -21595,7 +21595,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -21620,7 +21620,7 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -22165,7 +22165,7 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -22210,7 +22210,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -22540,7 +22540,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -22640,7 +22640,7 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -22700,32 +22700,32 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>APO SELF</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO</t>
+          <t>CARHUANCHO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES</t>
+          <t>EVANGELISTA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA</t>
+          <t>ORIHUELA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA</t>
+          <t>MACHCO</t>
         </is>
       </c>
     </row>
@@ -22737,32 +22737,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EMELYN HEIDY</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GABRIELA APFATA</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAMES JESUS</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ALVARO RAUL</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NICOLAS AXEL</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -23053,7 +23053,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -23283,7 +23283,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -23513,7 +23513,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -23868,7 +23868,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -23928,7 +23928,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -23998,12 +23998,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ARAUJO MORALES</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>PINEDA VASQUEZ</t>
+          <t>PINEDA</t>
         </is>
       </c>
     </row>
@@ -24015,12 +24015,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMINA JHINET</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JUDELY AYDEE</t>
+          <t>JUDELY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -25006,7 +25006,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -25146,62 +25146,62 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CASTILLO MORENO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ROMERO HAÃ‘ARI</t>
+          <t>ROMERO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RODRIGUEZ ALVAREZ</t>
+          <t>RODRIGUEZ</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>RAIME QUISPE</t>
+          <t>RAIME</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ATO PECHO</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>YAPUCHURA APAZA</t>
+          <t>YAPUCHURA</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>PACULIA ESTANISLAO</t>
+          <t>PACULIA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>SALVATIERRA PAREJA</t>
+          <t>SALVATIERRA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>RAMIREZ COTERA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>LINARES IBARRA</t>
+          <t>LINARES</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>CALLAÃ‘AUPA HUAMAN</t>
+          <t>CALLAÃ‘AUPA</t>
         </is>
       </c>
     </row>
@@ -25213,17 +25213,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KELLY MIREYA</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JOSE LUIS</t>
+          <t>JoseLuis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -25233,7 +25233,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SEAN ANDRE</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -25243,32 +25243,32 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>YENIFER ANGELICA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>PILAR SINTYA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -25674,7 +25674,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -25959,7 +25959,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -25984,7 +25984,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -26084,7 +26084,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -26579,7 +26579,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -27029,7 +27029,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -27897,7 +27897,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -28127,7 +28127,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -28672,7 +28672,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -28732,7 +28732,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -28807,12 +28807,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO</t>
+          <t>HUAYANAY</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -28822,17 +28822,17 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>NINA OSCCO</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -28842,72 +28842,72 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ACHA MONDRAGON</t>
+          <t>ACHA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>OLIVERA PILCO</t>
+          <t>OLIVERA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ERIQUE CALLE</t>
+          <t>ERIQUE</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO</t>
+          <t>ALVITE</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>HERRERA RIVEROS</t>
+          <t>HERRERA</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>CUSI QUISPE</t>
+          <t>CUSI</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>TOMAYCONZA QUISPE</t>
+          <t>TOMAYCONZA</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO</t>
+          <t>YANQUI</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>TITO LAURA</t>
+          <t>TITO</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO</t>
+          <t>LA ROSA</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>INGA DELGADO</t>
+          <t>INGA</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO</t>
+          <t>RAMOS</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI</t>
+          <t>BARRIENTOS</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
@@ -28922,67 +28922,67 @@
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>PIÃ‘A SHUPINGAHUA</t>
+          <t>PIÃ‘A</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>ROA ZARATE</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>LEON TICONA</t>
+          <t>LEON</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ</t>
+          <t>BONILLA</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS</t>
+          <t>VEGA</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>FLORES CANDELA</t>
+          <t>FLORES</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA</t>
+          <t>CASAPAICO</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>SICHA JORGE</t>
+          <t>SICHA</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO</t>
+          <t>NAVARRO</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO</t>
+          <t>LIZARME</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
@@ -28999,7 +28999,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EMIR ALESSANDRO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -29009,62 +29009,62 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KELLY CASTILLO</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRANCIS GABRIELA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>JUAN ALFONSO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ANTONY MAURICIO</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>VENUS ROMERO</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>GLADYS YANETH</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CAMILA MILAGROS</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>MARIA ANTONIETA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ANGIE LUCERO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>RAQUEL YOLANDA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>ROCIO ESPERANZA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>ANDREA ESTEFANY</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -29074,42 +29074,42 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>MIRIAN LUZ</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>NANCY FIORELLA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>SHADIA SHAMIRA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>CARLOS DANIEL</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>JORDAN JAVIER</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>MILAGROS NICOL</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>ALEX PACULIA</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>MARIA CALLAÃ‘AUPA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -29119,42 +29119,42 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ELIZABETH LUCY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>RAUL FERNANDO</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ANGELICA LOURDES</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>VICTORIA CELESTE</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>CRISTHIAN JESUS</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ENZO MANUEL</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>JOSE ANGELO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -29164,22 +29164,22 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>ARIADNA NAYLEA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>DREYDI BELINDA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>BRIYITH JASUMI</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>PILAR RAMIREZ</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -29870,7 +29870,7 @@
         </is>
       </c>
       <c r="AM22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -30015,7 +30015,7 @@
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -30295,7 +30295,7 @@
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -30425,7 +30425,7 @@
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -30485,7 +30485,7 @@
         </is>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -30545,7 +30545,7 @@
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -30660,7 +30660,7 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -30720,7 +30720,7 @@
         </is>
       </c>
       <c r="AM35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -30830,7 +30830,7 @@
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -30875,7 +30875,7 @@
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -30930,7 +30930,7 @@
         </is>
       </c>
       <c r="AM39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -31465,7 +31465,7 @@
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -31680,7 +31680,7 @@
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -32050,7 +32050,7 @@
         </is>
       </c>
       <c r="AM54" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -32265,7 +32265,7 @@
         </is>
       </c>
       <c r="AM56" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -32455,7 +32455,7 @@
         </is>
       </c>
       <c r="AM58" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -32545,7 +32545,7 @@
         </is>
       </c>
       <c r="AM59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -32800,7 +32800,7 @@
         </is>
       </c>
       <c r="AM62" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -32880,7 +32880,7 @@
         </is>
       </c>
       <c r="AM63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -33030,7 +33030,7 @@
         </is>
       </c>
       <c r="AM65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -33100,7 +33100,7 @@
         </is>
       </c>
       <c r="AM66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="AM67" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -33255,7 +33255,7 @@
         </is>
       </c>
       <c r="AM69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -33290,7 +33290,7 @@
         </is>
       </c>
       <c r="AM70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -33305,7 +33305,7 @@
         </is>
       </c>
       <c r="AM71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -33365,67 +33365,67 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>YAPUCHURA APAZA</t>
+          <t>YAPUCHURA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>CASTILLO MORENO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ROMERO HAÃ‘ARI</t>
+          <t>ROMERO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>RODRIGUEZ ALVAREZ</t>
+          <t>RODRIGUEZ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>SALVATIERRA PAREJA</t>
+          <t>SALVATIERRA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ATO PECHO</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>RAIME QUISPE</t>
+          <t>RAIME</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>LOPEZ LOPEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>CALLAÃ‘AUPA HUAMAN</t>
+          <t>CALLAÃ‘AUPA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>PACULIA ESTANISLAO</t>
+          <t>PACULIA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>APFATA CHALLA</t>
+          <t>APFATA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>RAMIREZ COTERA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>MANTARI PEREZ</t>
+          <t>MANTARI</t>
         </is>
       </c>
     </row>
@@ -33442,27 +33442,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KELLY MIREYA</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>JOSE LUIS</t>
+          <t>JoseLuis</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SEAN ANDRE</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -33472,32 +33472,32 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ENRIQUE HUMBERTO DANIEL</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ANA GABRIELA</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>PILAR SINTYA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>MIGUEL FERNANDO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -33983,7 +33983,7 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -34263,7 +34263,7 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -34368,7 +34368,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -34543,7 +34543,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -34573,7 +34573,7 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -34608,7 +34608,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -35068,7 +35068,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -35503,27 +35503,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÃ‘A</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO</t>
+          <t>CARHUANCHO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA</t>
+          <t>ORIHUELA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA</t>
+          <t>MACHCO</t>
         </is>
       </c>
     </row>
@@ -35535,27 +35535,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABIGAIL LUZ</t>
+          <t>ABIGAIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMELYN HEIDY</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAMES JESUS</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ALVARO RAUL</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NICOLAS AXEL</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -35856,7 +35856,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -36056,7 +36056,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -36286,7 +36286,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -36566,7 +36566,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -36641,7 +36641,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -36711,12 +36711,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ARAUJO MORALES</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>PINEDA VASQUEZ</t>
+          <t>PINEDA</t>
         </is>
       </c>
     </row>
@@ -36728,12 +36728,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMINA JHINET</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JUDELY AYDEE</t>
+          <t>JUDELY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -37419,7 +37419,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -37719,7 +37719,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -38272,7 +38272,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -38757,7 +38757,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -38857,7 +38857,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -39132,7 +39132,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -39482,7 +39482,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -39502,7 +39502,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -39562,7 +39562,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TOMAYCONZA QUISPE</t>
+          <t>TOMAYCONZA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -39572,62 +39572,62 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CUSI QUISPE</t>
+          <t>CUSI</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MUÃ‘OZ SOTOMAYOR</t>
+          <t>MUÃ‘OZ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ERIQUE CALLE</t>
+          <t>ERIQUE</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO</t>
+          <t>LA ROSA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI</t>
+          <t>HUAMAN</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO</t>
+          <t>HUAYANAY</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>FLORES CANDELA</t>
+          <t>FLORES</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI</t>
+          <t>QUIQUIA</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -39637,47 +39637,47 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA</t>
+          <t>IDELFONSO</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO</t>
+          <t>JIMENEZ</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO</t>
+          <t>RAMOS</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>NINA OSCCO</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>HEREDIA CAHUAYA</t>
+          <t>HEREDIA</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>OLIVERA PILCO</t>
+          <t>OLIVERA</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ</t>
+          <t>BONILLA</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO</t>
+          <t>YANQUI</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
@@ -39692,57 +39692,57 @@
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>PIÃ‘A SHUPINGAHUA</t>
+          <t>PIÃ‘A</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>ROA ZARATE</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO</t>
+          <t>LIZARME</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA</t>
+          <t>BRENIS</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>INGA DELGADO</t>
+          <t>INGA</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA</t>
+          <t>CASAPAICO</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>LEON TICONA</t>
+          <t>LEON</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>SICHA JORGE</t>
+          <t>SICHA</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
@@ -39764,52 +39764,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KELLY CASTILLO</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ANDREA ESTEFANY</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MIRIAN RAQUEL</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ROCIO ESPERANZA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EMIR ALESSANDRO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MARIA ANTONIETA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NELLY ANDREA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CIELO CRISTHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>SHADIA SHAMIRA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ALEXIS JAVIER</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -39819,72 +39819,72 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CRISTHIAN JESUS</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>CYNTHIA ANGELLINE</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>MARIA CALLAÃ‘AUPA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>JHOSSEP ANGELO</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ASTRID GERALDINE</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>JORDAN JAVIER</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>FRANCIS GABRIELA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>ANTONY MAURICIO</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>SUSAN NAYELLI</t>
+          <t>NAYELLI</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>CAMILA MILAGROS</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>RAUL FERNANDO</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MIRIAN LUZ</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALEX PACULIA</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>PILAR RAMIREZ</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -39894,17 +39894,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>JULISSA JAZMIN</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ELIZABETH LUCY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BRIYITH JASUMI</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -39914,17 +39914,17 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>CARLOS DANIEL</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>ENZO MANUEL</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -39934,17 +39934,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>JOSE ANGELO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>DREYDI BELINDA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>XIOMARA LINARES</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -40550,7 +40550,7 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -40700,7 +40700,7 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -40865,7 +40865,7 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -41040,7 +41040,7 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -41390,7 +41390,7 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -41645,7 +41645,7 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -41885,7 +41885,7 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -41960,7 +41960,7 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -42030,7 +42030,7 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -42190,7 +42190,7 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -42935,7 +42935,7 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -43265,7 +43265,7 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -43375,7 +43375,7 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -43470,7 +43470,7 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -43950,7 +43950,7 @@
         </is>
       </c>
       <c r="AN62" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -44025,7 +44025,7 @@
         </is>
       </c>
       <c r="AN63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -44095,7 +44095,7 @@
         </is>
       </c>
       <c r="AN64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -44160,7 +44160,7 @@
         </is>
       </c>
       <c r="AN65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -44220,7 +44220,7 @@
         </is>
       </c>
       <c r="AN66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -44275,7 +44275,7 @@
         </is>
       </c>
       <c r="AN67" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -44365,7 +44365,7 @@
         </is>
       </c>
       <c r="AN70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -44380,7 +44380,7 @@
         </is>
       </c>
       <c r="AN71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -44440,72 +44440,72 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CASTILLO MORENO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SALVATIERRA PAREJA</t>
+          <t>SALVATIERRA</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RODRIGUEZ ALVAREZ</t>
+          <t>RODRIGUEZ</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>RAIME QUISPE</t>
+          <t>RAIME</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>CALLAÃ‘AUPA HUAMAN</t>
+          <t>CALLAÃ‘AUPA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>MANTARI PEREZ</t>
+          <t>MANTARI</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>APFATA CHALLA</t>
+          <t>APFATA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>YAPUCHURA APAZA</t>
+          <t>YAPUCHURA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>LOPEZ LOPEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>RAMIREZ COTERA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>PACULIA ESTANISLAO</t>
+          <t>PACULIA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>LINARES IBARRA</t>
+          <t>LINARES</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>ATO PECHO</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
@@ -44517,17 +44517,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KELLY MIREYA</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JOSE LUIS</t>
+          <t>JoseLuis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -44537,17 +44537,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MIGUEL FERNANDO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ANA GABRIELA</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -44557,32 +44557,32 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ENRIQUE HUMBERTO DANIEL</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>PILAR SINTYA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>YENIFER ANGELICA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>SEAN ANDRE</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -45018,7 +45018,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -45098,7 +45098,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -45378,7 +45378,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -45418,7 +45418,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -45558,7 +45558,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -45588,7 +45588,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -46103,7 +46103,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -46488,7 +46488,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -46608,7 +46608,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -46668,27 +46668,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA</t>
+          <t>MACHCO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÃ‘A</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES</t>
+          <t>EVANGELISTA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA</t>
+          <t>ORIHUELA</t>
         </is>
       </c>
     </row>
@@ -46700,27 +46700,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EMELYN HEIDY</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NICOLAS AXEL</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ABIGAIL LUZ</t>
+          <t>ABIGAIL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ALVARO RAUL</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -47016,7 +47016,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -47226,7 +47226,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -47471,7 +47471,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -47761,7 +47761,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -47806,7 +47806,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -47876,12 +47876,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ARAUJO MORALES</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>PINEDA VASQUEZ</t>
+          <t>PINEDA</t>
         </is>
       </c>
     </row>
@@ -47893,12 +47893,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMINA JHINET</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JUDELY AYDEE</t>
+          <t>JUDELY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -48584,7 +48584,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -48884,7 +48884,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -49024,27 +49024,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÃ‘A</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO</t>
+          <t>CARHUANCHO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES</t>
+          <t>EVANGELISTA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA</t>
+          <t>ORIHUELA</t>
         </is>
       </c>
     </row>
@@ -49056,27 +49056,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABIGAIL LUZ</t>
+          <t>ABIGAIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMELYN HEIDY</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAMES JESUS</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ALVARO RAUL</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -49597,7 +49597,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -49827,7 +49827,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -50117,7 +50117,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -50162,7 +50162,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -51325,7 +51325,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -51395,7 +51395,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -51425,7 +51425,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -51450,7 +51450,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -51610,7 +51610,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -52050,7 +52050,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -52070,7 +52070,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -52130,12 +52130,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>FLORES CANDELA</t>
+          <t>FLORES</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -52145,57 +52145,57 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>HEREDIA CAHUAYA</t>
+          <t>HEREDIA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ACHA MONDRAGON</t>
+          <t>ACHA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI</t>
+          <t>BARRIENTOS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>TOMAYCONZA QUISPE</t>
+          <t>TOMAYCONZA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO</t>
+          <t>ALVITE</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI</t>
+          <t>HUAMAN</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>HERRERA RIVEROS</t>
+          <t>HERRERA</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO</t>
+          <t>JIMENEZ</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI</t>
+          <t>QUIQUIA</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -52205,57 +52205,57 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>MUÃ‘OZ SOTOMAYOR</t>
+          <t>MUÃ‘OZ</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO</t>
+          <t>YANQUI</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>ERIQUE CALLE</t>
+          <t>ERIQUE</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>TITO LAURA</t>
+          <t>TITO</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>NINA OSCCO</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ</t>
+          <t>BONILLA</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS</t>
+          <t>VEGA</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO</t>
+          <t>LA ROSA</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
@@ -52265,62 +52265,62 @@
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>PIÃ‘A SHUPINGAHUA</t>
+          <t>PIÃ‘A</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA</t>
+          <t>IDELFONSO</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>ROA ZARATE</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>LEON TICONA</t>
+          <t>LEON</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO</t>
+          <t>RAMOS</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>OLIVERA PILCO</t>
+          <t>OLIVERA</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO</t>
+          <t>LIZARME</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA</t>
+          <t>CASAPAICO</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA</t>
+          <t>BRENIS</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO</t>
+          <t>NAVARRO</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
@@ -52337,37 +52337,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIELO CRISTHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CRISTHIAN JESUS</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MARIA CALLAÃ‘AUPA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SUSAN NAYELLI</t>
+          <t>NAYELLI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GLADYS YANETH</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MILAGROS NICOL</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EMIR ALESSANDRO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -52377,97 +52377,97 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>JUAN ALFONSO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ANGIE LUCERO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ALEXIS JAVIER</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>RAQUEL YOLANDA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>ASTRID GERALDINE</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>CYNTHIA ANGELLINE</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>VENUS ROMERO</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>MIRIAN RAQUEL</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>MIRIAN LUZ</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>MARIA ANTONIETA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>NANCY FIORELLA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>FRANCIS GABRIELA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>NELLY ANDREA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>RAUL FERNANDO</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>ANTONY MAURICIO</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ANGELICA LOURDES</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>VICTORIA CELESTE</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>SHADIA SHAMIRA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>PILAR RAMIREZ</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -52477,42 +52477,42 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>JHOSSEP ANGELO</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ELIZABETH LUCY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>JORDAN JAVIER</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>CAMILA MILAGROS</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>BRIYITH JASUMI</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>DREYDI BELINDA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ENZO MANUEL</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -52527,12 +52527,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ARIADNA NAYLEA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>XIOMARA LINARES</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -53183,7 +53183,7 @@
         </is>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -53248,7 +53248,7 @@
         </is>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -53323,7 +53323,7 @@
         </is>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -53638,7 +53638,7 @@
         </is>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="AP34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -54258,7 +54258,7 @@
         </is>
       </c>
       <c r="AP35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -54348,7 +54348,7 @@
         </is>
       </c>
       <c r="AP36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -54518,7 +54518,7 @@
         </is>
       </c>
       <c r="AP38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -54593,7 +54593,7 @@
         </is>
       </c>
       <c r="AP39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -54673,7 +54673,7 @@
         </is>
       </c>
       <c r="AP40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -54843,7 +54843,7 @@
         </is>
       </c>
       <c r="AP42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -55298,7 +55298,7 @@
         </is>
       </c>
       <c r="AP47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -55573,7 +55573,7 @@
         </is>
       </c>
       <c r="AP50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -56138,7 +56138,7 @@
         </is>
       </c>
       <c r="AP55" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -56248,7 +56248,7 @@
         </is>
       </c>
       <c r="AP56" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -56448,7 +56448,7 @@
         </is>
       </c>
       <c r="AP58" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -56628,7 +56628,7 @@
         </is>
       </c>
       <c r="AP60" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -56798,7 +56798,7 @@
         </is>
       </c>
       <c r="AP62" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -56958,7 +56958,7 @@
         </is>
       </c>
       <c r="AP64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -57108,7 +57108,7 @@
         </is>
       </c>
       <c r="AP66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -57168,7 +57168,7 @@
         </is>
       </c>
       <c r="AP67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -57238,7 +57238,7 @@
         </is>
       </c>
       <c r="AP69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -57268,7 +57268,7 @@
         </is>
       </c>
       <c r="AP70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -57283,7 +57283,7 @@
         </is>
       </c>
       <c r="AP71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -57343,62 +57343,62 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CALLAÃ‘AUPA HUAMAN</t>
+          <t>CALLAÃ‘AUPA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ATO PECHO</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SALVATIERRA PAREJA</t>
+          <t>SALVATIERRA</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ROMERO HAÃ‘ARI</t>
+          <t>ROMERO</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>RAIME QUISPE</t>
+          <t>RAIME</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>APFATA CHALLA</t>
+          <t>APFATA</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>YAPUCHURA APAZA</t>
+          <t>YAPUCHURA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>LOPEZ LOPEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>RAMIREZ COTERA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>LINARES IBARRA</t>
+          <t>LINARES</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>MANTARI PEREZ</t>
+          <t>MANTARI</t>
         </is>
       </c>
     </row>
@@ -57410,22 +57410,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEAN ANDRE</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -57435,7 +57435,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ANA GABRIELA</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -57445,27 +57445,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ENRIQUE HUMBERTO DANIEL</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PILAR SINTYA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>YENIFER ANGELICA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MIGUEL FERNANDO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -57871,7 +57871,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -57941,7 +57941,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -58361,7 +58361,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -58391,7 +58391,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -58826,7 +58826,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -59211,7 +59211,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -59331,7 +59331,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -59391,32 +59391,32 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÃ‘A</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO</t>
+          <t>CARHUANCHO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES</t>
+          <t>EVANGELISTA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA</t>
+          <t>MACHCO</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA</t>
+          <t>ORIHUELA</t>
         </is>
       </c>
     </row>
@@ -59428,32 +59428,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABIGAIL LUZ</t>
+          <t>ABIGAIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMELYN HEIDY</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAMES JESUS</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NICOLAS AXEL</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ALVARO RAUL</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -59744,7 +59744,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -59974,7 +59974,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -60269,7 +60269,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -60334,7 +60334,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -60574,7 +60574,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -60619,7 +60619,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -60689,12 +60689,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ARAUJO MORALES</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>PINEDA VASQUEZ</t>
+          <t>PINEDA</t>
         </is>
       </c>
     </row>
@@ -60706,12 +60706,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMINA JHINET</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JUDELY AYDEE</t>
+          <t>JUDELY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -61397,7 +61397,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -61697,7 +61697,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -62935,7 +62935,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -62995,7 +62995,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -63205,7 +63205,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -63585,7 +63585,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -63645,7 +63645,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ARAUJO MORALES</t>
+          <t>ARAUJO</t>
         </is>
       </c>
     </row>
@@ -63657,7 +63657,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMINA JHINET</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -64458,7 +64458,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -65396,7 +65396,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -65576,7 +65576,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -65816,7 +65816,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -66146,7 +66146,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -66221,7 +66221,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -66241,7 +66241,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -66301,12 +66301,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HERRERA RIVEROS</t>
+          <t>HERRERA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -66316,27 +66316,27 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO</t>
+          <t>HUAYANAY</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON</t>
+          <t>QUISPE</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ACHA MONDRAGON</t>
+          <t>ACHA</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>OLIVERA PILCO</t>
+          <t>OLIVERA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>FLORES CANDELA</t>
+          <t>FLORES</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -66346,62 +66346,62 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>TOMAYCONZA QUISPE</t>
+          <t>TOMAYCONZA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI</t>
+          <t>QUIQUIA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI</t>
+          <t>HUAMAN</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>CUSI QUISPE</t>
+          <t>CUSI</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS</t>
+          <t>VEGA</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA</t>
+          <t>IDELFONSO</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO</t>
+          <t>ALVITE</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO</t>
+          <t>YANQUI</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO</t>
+          <t>JIMENEZ</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO</t>
+          <t>LA ROSA</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>INGA DELGADO</t>
+          <t>INGA</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
@@ -66411,57 +66411,57 @@
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>MUÃ‘OZ SOTOMAYOR</t>
+          <t>MUÃ‘OZ</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>ROA ZARATE</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>LEON TICONA</t>
+          <t>LEON</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ</t>
+          <t>BONILLA</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>SICHA JORGE</t>
+          <t>SICHA</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA</t>
+          <t>BRENIS</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>PIÃ‘A SHUPINGAHUA</t>
+          <t>PIÃ‘A</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO</t>
+          <t>LIZARME</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO</t>
+          <t>NAVARRO</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
@@ -66483,17 +66483,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RAQUEL YOLANDA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CIELO CRISTHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KELLY CASTILLO</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -66503,27 +66503,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>JUAN ALFONSO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GLADYS YANETH</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CAMILA MILAGROS</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CRISTHIAN JESUS</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>VENUS ROMERO</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -66533,87 +66533,87 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CYNTHIA ANGELLINE</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ROCIO ESPERANZA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>ALEXIS JAVIER</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>ANDREA ESTEFANY</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ANGELICA LOURDES</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>JHOSSEP ANGELO</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ANGIE LUCERO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>MIRIAN LUZ</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>ASTRID GERALDINE</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>SHADIA SHAMIRA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>CARLOS DANIEL</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>XIOMARA LINARES</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>MIRIAN RAQUEL</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ELIZABETH LUCY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>RAUL FERNANDO</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>JOSE ANGELO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -66628,32 +66628,32 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BRIYITH JASUMI</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>VICTORIA CELESTE</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>ARIADNA NAYLEA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>DREYDI BELINDA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>ALEX PACULIA</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MARIA CALLAÃ‘AUPA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -67309,7 +67309,7 @@
         </is>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -67379,7 +67379,7 @@
         </is>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -67449,7 +67449,7 @@
         </is>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -67584,7 +67584,7 @@
         </is>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -67719,7 +67719,7 @@
         </is>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -67854,7 +67854,7 @@
         </is>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -67989,7 +67989,7 @@
         </is>
       </c>
       <c r="AK32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -68194,7 +68194,7 @@
         </is>
       </c>
       <c r="AK35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -68254,7 +68254,7 @@
         </is>
       </c>
       <c r="AK36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -68309,7 +68309,7 @@
         </is>
       </c>
       <c r="AK37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -68359,7 +68359,7 @@
         </is>
       </c>
       <c r="AK38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -68409,7 +68409,7 @@
         </is>
       </c>
       <c r="AK39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -68509,7 +68509,7 @@
         </is>
       </c>
       <c r="AK41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -68624,7 +68624,7 @@
         </is>
       </c>
       <c r="AK43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -68744,7 +68744,7 @@
         </is>
       </c>
       <c r="AK45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -68864,7 +68864,7 @@
         </is>
       </c>
       <c r="AK47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -69319,7 +69319,7 @@
         </is>
       </c>
       <c r="AK54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="AK56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="AK58" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -69739,7 +69739,7 @@
         </is>
       </c>
       <c r="AK59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -69869,7 +69869,7 @@
         </is>
       </c>
       <c r="AK61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -70169,7 +70169,7 @@
         </is>
       </c>
       <c r="AK66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="AK67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -70264,7 +70264,7 @@
         </is>
       </c>
       <c r="AK68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -70304,7 +70304,7 @@
         </is>
       </c>
       <c r="AK69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -70339,7 +70339,7 @@
         </is>
       </c>
       <c r="AK70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -70359,7 +70359,7 @@
         </is>
       </c>
       <c r="AK71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -70419,67 +70419,67 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>YAPUCHURA APAZA</t>
+          <t>YAPUCHURA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>CASTILLO MORENO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RODRIGUEZ ALVAREZ</t>
+          <t>RODRIGUEZ</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ROMERO HAÃ‘ARI</t>
+          <t>ROMERO</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ATO PECHO</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>LOPEZ LOPEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>APFATA CHALLA</t>
+          <t>APFATA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>LINARES IBARRA</t>
+          <t>LINARES</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>SALVATIERRA PAREJA</t>
+          <t>SALVATIERRA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>CALLAÃ‘AUPA HUAMAN</t>
+          <t>CALLAÃ‘AUPA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>MANTARI PEREZ</t>
+          <t>MANTARI</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>PACULIA ESTANISLAO</t>
+          <t>PACULIA</t>
         </is>
       </c>
     </row>
@@ -70496,62 +70496,62 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KELLY MIREYA</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JOSE LUIS</t>
+          <t>JoseLuis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA</t>
+          <t>VENUS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SEAN ANDRE</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ENRIQUE HUMBERTO DANIEL</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ANA GABRIELA</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>YENIFER ANGELICA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MIGUEL FERNANDO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -71017,7 +71017,7 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -71317,7 +71317,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -71347,7 +71347,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -71452,7 +71452,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -71512,7 +71512,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -71917,7 +71917,7 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -71992,7 +71992,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -72377,7 +72377,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -72497,7 +72497,7 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -72557,27 +72557,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÃ‘A</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO</t>
+          <t>HUAMANI</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO</t>
+          <t>CARHUANCHO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES</t>
+          <t>EVANGELISTA</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA</t>
+          <t>MACHCO</t>
         </is>
       </c>
     </row>
@@ -72589,27 +72589,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABIGAIL LUZ</t>
+          <t>ABIGAIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMELYN HEIDY</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAMES JESUS</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NICOLAS AXEL</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -72900,7 +72900,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -73130,7 +73130,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -73360,7 +73360,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -73650,7 +73650,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -73695,7 +73695,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -73765,12 +73765,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ARAUJO MORALES</t>
+          <t>ARAUJO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>PINEDA VASQUEZ</t>
+          <t>PINEDA</t>
         </is>
       </c>
     </row>
@@ -73782,12 +73782,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMINA JHINET</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JUDELY AYDEE</t>
+          <t>JUDELY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -74473,7 +74473,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -74773,7 +74773,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
